--- a/output/DiagnosticReport/diagnosticreport-imag-mhr-1.xlsx
+++ b/output/DiagnosticReport/diagnosticreport-imag-mhr-1.xlsx
@@ -7774,7 +7774,7 @@
         <v>52</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>53</v>

--- a/output/DiagnosticReport/diagnosticreport-imag-mhr-1.xlsx
+++ b/output/DiagnosticReport/diagnosticreport-imag-mhr-1.xlsx
@@ -7774,7 +7774,7 @@
         <v>52</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>53</v>

--- a/output/DiagnosticReport/diagnosticreport-imag-mhr-1.xlsx
+++ b/output/DiagnosticReport/diagnosticreport-imag-mhr-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$93</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3271" uniqueCount="569">
   <si>
     <t>Path</t>
   </si>
@@ -160,7 +160,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-dh-dir-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-dir-02:The performer shall at least have a reference or an identifier with at least a system and a value {performer.reference.exists() or performer.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-dir-03:The requester of the diagnostic imaging order shall be a PractitionerRole {basedOn.resolve().requester.resolve().where($this is PractitionerRole).exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -213,81 +213,85 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+inv-dh-dir-04:One profile shall be 'http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/diagnosticreport-imag-mhr-1' {profile.where($this='http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/diagnosticreport-imag-mhr-1').exists()}</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.meta.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.meta.versionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>DiagnosticReport.meta.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
     <t>DiagnosticReport.meta.lastUpdated</t>
   </si>
   <si>
@@ -923,7 +927,7 @@
 </t>
   </si>
   <si>
-    <t>What was requested</t>
+    <t>Diagnostic imaging order</t>
   </si>
   <si>
     <t>Details concerning a service requested.</t>
@@ -944,10 +948,93 @@
     <t>outboundRelationship[typeCode=FLFS].target</t>
   </si>
   <si>
+    <t>DiagnosticReport.basedOn.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>DiagnosticReport.status</t>
   </si>
   <si>
-    <t>registered | partial | preliminary | final +</t>
+    <t>partial | preliminary | final +</t>
   </si>
   <si>
     <t>The status of the diagnostic report.</t>
@@ -956,7 +1043,7 @@
     <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status|4.0.1</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/diagnosticreportstatus-report-available-1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -1070,7 +1157,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/patient-mhr-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-mhr-1)
 </t>
   </si>
   <si>
@@ -1200,7 +1287,7 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/practitionerrole-ident-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/practitionerrole-ident-1)
 </t>
   </si>
   <si>
@@ -1311,78 +1398,13 @@
     <t>DiagnosticReport.result.reference</t>
   </si>
   <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
     <t>DiagnosticReport.result.type</t>
   </si>
   <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
     <t>DiagnosticReport.result.identifier</t>
   </si>
   <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
     <t>DiagnosticReport.result.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>DiagnosticReport.imagingStudy</t>
@@ -1919,7 +1941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM87"/>
+  <dimension ref="A1:AM93"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1952,7 +1974,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.98828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -2735,7 +2757,7 @@
         <v>43</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>43</v>
@@ -2752,7 +2774,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2775,16 +2797,16 @@
         <v>53</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2834,7 +2856,7 @@
         <v>43</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
@@ -2846,7 +2868,7 @@
         <v>43</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>43</v>
@@ -2863,7 +2885,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2886,16 +2908,16 @@
         <v>53</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2945,7 +2967,7 @@
         <v>43</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -2957,7 +2979,7 @@
         <v>43</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>43</v>
@@ -2974,7 +2996,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2997,16 +3019,16 @@
         <v>53</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3056,7 +3078,7 @@
         <v>43</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -3068,7 +3090,7 @@
         <v>43</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>43</v>
@@ -3085,7 +3107,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3108,16 +3130,16 @@
         <v>53</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3143,13 +3165,13 @@
         <v>43</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>43</v>
@@ -3167,7 +3189,7 @@
         <v>43</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -3179,7 +3201,7 @@
         <v>43</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>43</v>
@@ -3196,7 +3218,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3219,16 +3241,16 @@
         <v>53</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3254,13 +3276,13 @@
         <v>43</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>43</v>
@@ -3278,7 +3300,7 @@
         <v>43</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -3290,7 +3312,7 @@
         <v>43</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>43</v>
@@ -3307,7 +3329,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3330,16 +3352,16 @@
         <v>53</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3389,7 +3411,7 @@
         <v>43</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -3401,7 +3423,7 @@
         <v>43</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>43</v>
@@ -3418,7 +3440,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3441,16 +3463,16 @@
         <v>43</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3458,7 +3480,7 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>43</v>
@@ -3476,13 +3498,13 @@
         <v>43</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>43</v>
@@ -3500,7 +3522,7 @@
         <v>43</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -3512,7 +3534,7 @@
         <v>43</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>43</v>
@@ -3529,11 +3551,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3552,16 +3574,16 @@
         <v>43</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3611,7 +3633,7 @@
         <v>43</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3623,7 +3645,7 @@
         <v>43</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>43</v>
@@ -3632,7 +3654,7 @@
         <v>43</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>43</v>
@@ -3640,11 +3662,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3663,16 +3685,16 @@
         <v>43</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3722,7 +3744,7 @@
         <v>43</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3743,7 +3765,7 @@
         <v>43</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>43</v>
@@ -3751,7 +3773,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3780,7 +3802,7 @@
         <v>73</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>75</v>
@@ -3833,7 +3855,7 @@
         <v>43</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3854,7 +3876,7 @@
         <v>43</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>43</v>
@@ -3862,7 +3884,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3888,16 +3910,16 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>43</v>
@@ -3946,7 +3968,7 @@
         <v>43</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3967,7 +3989,7 @@
         <v>43</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>43</v>
@@ -3975,11 +3997,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3998,19 +4020,19 @@
         <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>43</v>
@@ -4047,7 +4069,7 @@
         <v>43</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
@@ -4057,7 +4079,7 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -4069,30 +4091,30 @@
         <v>43</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4111,19 +4133,19 @@
         <v>53</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>43</v>
@@ -4172,7 +4194,7 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -4184,24 +4206,24 @@
         <v>43</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4310,7 +4332,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4421,7 +4443,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4444,19 +4466,19 @@
         <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>43</v>
@@ -4481,13 +4503,13 @@
         <v>43</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>43</v>
@@ -4505,7 +4527,7 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4517,16 +4539,16 @@
         <v>43</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>43</v>
@@ -4534,7 +4556,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4557,19 +4579,19 @@
         <v>53</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>43</v>
@@ -4594,11 +4616,11 @@
         <v>43</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>43</v>
@@ -4616,7 +4638,7 @@
         <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4628,16 +4650,16 @@
         <v>43</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>43</v>
@@ -4645,7 +4667,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4754,7 +4776,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4865,7 +4887,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4888,19 +4910,19 @@
         <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>43</v>
@@ -4949,7 +4971,7 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4961,16 +4983,16 @@
         <v>43</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>43</v>
@@ -4978,7 +5000,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5087,7 +5109,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5198,7 +5220,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5221,26 +5243,26 @@
         <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>43</v>
@@ -5282,7 +5304,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -5294,16 +5316,16 @@
         <v>43</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>43</v>
@@ -5311,7 +5333,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5337,13 +5359,13 @@
         <v>54</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5393,7 +5415,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -5405,16 +5427,16 @@
         <v>43</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>43</v>
@@ -5422,7 +5444,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5445,24 +5467,24 @@
         <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>43</v>
@@ -5504,7 +5526,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5516,16 +5538,16 @@
         <v>43</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>43</v>
@@ -5533,7 +5555,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5559,14 +5581,14 @@
         <v>54</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>43</v>
@@ -5615,7 +5637,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5627,16 +5649,16 @@
         <v>43</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>43</v>
@@ -5644,7 +5666,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5667,19 +5689,19 @@
         <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>43</v>
@@ -5728,7 +5750,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5740,16 +5762,16 @@
         <v>43</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>43</v>
@@ -5757,7 +5779,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5783,16 +5805,16 @@
         <v>54</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>43</v>
@@ -5841,7 +5863,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5853,16 +5875,16 @@
         <v>43</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>43</v>
@@ -5870,7 +5892,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5893,19 +5915,19 @@
         <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>43</v>
@@ -5918,7 +5940,7 @@
         <v>43</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>43</v>
@@ -5954,7 +5976,7 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5966,16 +5988,16 @@
         <v>43</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>43</v>
@@ -5983,7 +6005,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6009,13 +6031,13 @@
         <v>54</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6029,7 +6051,7 @@
         <v>43</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>43</v>
@@ -6065,7 +6087,7 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -6077,16 +6099,16 @@
         <v>43</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>43</v>
@@ -6094,7 +6116,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6117,13 +6139,13 @@
         <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6174,7 +6196,7 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -6186,16 +6208,16 @@
         <v>43</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>43</v>
@@ -6203,7 +6225,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6226,16 +6248,16 @@
         <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6285,7 +6307,7 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -6297,16 +6319,16 @@
         <v>43</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>43</v>
@@ -6314,11 +6336,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6337,19 +6359,19 @@
         <v>43</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>43</v>
@@ -6398,7 +6420,7 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -6410,24 +6432,24 @@
         <v>43</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6435,33 +6457,31 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>300</v>
+        <v>66</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>301</v>
+        <v>67</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>302</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>43</v>
       </c>
@@ -6485,92 +6505,92 @@
         <v>43</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>309</v>
+        <v>71</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>310</v>
+        <v>73</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>311</v>
+        <v>74</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>312</v>
+        <v>75</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6581,7 +6601,7 @@
         <v>43</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>313</v>
+        <v>43</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>43</v>
@@ -6596,29 +6616,31 @@
         <v>43</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>314</v>
+        <v>43</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6630,28 +6652,28 @@
         <v>43</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>315</v>
+        <v>43</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>316</v>
+        <v>69</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>317</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>319</v>
+        <v>43</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6661,7 +6683,7 @@
         <v>52</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>43</v>
@@ -6670,15 +6692,17 @@
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>189</v>
+        <v>54</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>43</v>
@@ -6703,13 +6727,13 @@
         <v>43</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>322</v>
+        <v>43</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>323</v>
+        <v>43</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>43</v>
@@ -6727,36 +6751,36 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>326</v>
+        <v>153</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>327</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6776,18 +6800,20 @@
         <v>43</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>66</v>
+        <v>309</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>43</v>
@@ -6812,13 +6838,13 @@
         <v>43</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>43</v>
+        <v>312</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>43</v>
+        <v>313</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>43</v>
@@ -6836,7 +6862,7 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>68</v>
+        <v>314</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6848,7 +6874,7 @@
         <v>43</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>43</v>
@@ -6857,7 +6883,7 @@
         <v>43</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>43</v>
@@ -6865,18 +6891,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>43</v>
@@ -6885,19 +6911,19 @@
         <v>43</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>73</v>
+        <v>316</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>75</v>
+        <v>318</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6935,31 +6961,31 @@
         <v>43</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>43</v>
@@ -6968,7 +6994,7 @@
         <v>43</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>69</v>
+        <v>320</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>43</v>
@@ -6976,7 +7002,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6987,7 +7013,7 @@
         <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>43</v>
@@ -6999,20 +7025,18 @@
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>200</v>
+        <v>322</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>201</v>
+        <v>323</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>43</v>
       </c>
@@ -7048,83 +7072,81 @@
         <v>43</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AB46" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>204</v>
+        <v>325</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>203</v>
+        <v>329</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>43</v>
@@ -7149,72 +7171,72 @@
         <v>43</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>43</v>
-      </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>335</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>43</v>
+        <v>336</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>43</v>
@@ -7223,20 +7245,18 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>250</v>
+        <v>337</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>43</v>
       </c>
@@ -7245,7 +7265,7 @@
         <v>43</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>43</v>
@@ -7260,13 +7280,11 @@
         <v>43</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>43</v>
+        <v>341</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>43</v>
@@ -7284,40 +7302,40 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>254</v>
+        <v>335</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>255</v>
+        <v>342</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>256</v>
+        <v>343</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>43</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7336,18 +7354,16 @@
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>338</v>
+        <v>190</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>341</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>43</v>
       </c>
@@ -7371,13 +7387,13 @@
         <v>43</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>43</v>
+        <v>349</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>43</v>
+        <v>350</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>43</v>
@@ -7395,10 +7411,10 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>52</v>
@@ -7407,28 +7423,28 @@
         <v>43</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>347</v>
+        <v>43</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7444,23 +7460,19 @@
         <v>43</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>348</v>
+        <v>54</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>349</v>
+        <v>66</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>43</v>
       </c>
@@ -7508,7 +7520,7 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>346</v>
+        <v>68</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7520,60 +7532,58 @@
         <v>43</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>353</v>
+        <v>43</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>354</v>
+        <v>43</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>355</v>
+        <v>69</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
         <v>356</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>358</v>
+        <v>71</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>359</v>
+        <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>360</v>
+        <v>73</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>361</v>
+        <v>74</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>43</v>
       </c>
@@ -7609,62 +7619,62 @@
         <v>43</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>369</v>
+        <v>43</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>43</v>
@@ -7673,19 +7683,19 @@
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>370</v>
+        <v>201</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>371</v>
+        <v>202</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>372</v>
+        <v>203</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>373</v>
+        <v>204</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>43</v>
@@ -7722,62 +7732,62 @@
         <v>43</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>368</v>
+        <v>205</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>374</v>
+        <v>206</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>375</v>
+        <v>207</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>376</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="C53" t="s" s="2">
-        <v>378</v>
+        <v>43</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>43</v>
@@ -7786,19 +7796,19 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>379</v>
+        <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>381</v>
+        <v>202</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>382</v>
+        <v>203</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>383</v>
+        <v>204</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>43</v>
@@ -7823,13 +7833,11 @@
         <v>43</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>43</v>
+        <v>361</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>43</v>
@@ -7847,7 +7855,7 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>377</v>
+        <v>205</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7859,35 +7867,35 @@
         <v>43</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>384</v>
+        <v>43</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>385</v>
+        <v>206</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>386</v>
+        <v>207</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>387</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>389</v>
+        <v>43</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>43</v>
@@ -7899,19 +7907,19 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>390</v>
+        <v>54</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>391</v>
+        <v>251</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>392</v>
+        <v>252</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>393</v>
+        <v>253</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>383</v>
+        <v>254</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>43</v>
@@ -7960,71 +7968,69 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>388</v>
+        <v>255</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>384</v>
+        <v>43</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>394</v>
+        <v>256</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>386</v>
+        <v>257</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>387</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>43</v>
+        <v>364</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>43</v>
@@ -8073,71 +8079,71 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>43</v>
+        <v>369</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>43</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>43</v>
@@ -8186,68 +8192,72 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>43</v>
+        <v>380</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>43</v>
+        <v>383</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>43</v>
+        <v>385</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>54</v>
+        <v>386</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>66</v>
+        <v>387</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>43</v>
       </c>
@@ -8295,7 +8305,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>68</v>
+        <v>384</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -8307,58 +8317,60 @@
         <v>43</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>43</v>
+        <v>391</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>43</v>
+        <v>392</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>69</v>
+        <v>393</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>43</v>
+        <v>394</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>71</v>
+        <v>396</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>73</v>
+        <v>397</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>74</v>
+        <v>398</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>43</v>
       </c>
@@ -8394,62 +8406,62 @@
         <v>43</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>43</v>
+        <v>401</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>69</v>
+        <v>402</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>43</v>
+        <v>403</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>43</v>
+        <v>405</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>52</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>43</v>
@@ -8458,18 +8470,20 @@
         <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>54</v>
+        <v>406</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>43</v>
       </c>
@@ -8517,47 +8531,47 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>418</v>
+        <v>43</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>43</v>
+        <v>411</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>43</v>
+        <v>412</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>152</v>
+        <v>413</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>43</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>43</v>
+        <v>416</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>43</v>
@@ -8569,18 +8583,20 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>94</v>
+        <v>417</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>43</v>
       </c>
@@ -8604,13 +8620,13 @@
         <v>43</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>423</v>
+        <v>43</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>424</v>
+        <v>43</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>43</v>
@@ -8628,36 +8644,36 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>43</v>
+        <v>411</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>152</v>
+        <v>413</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>43</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8668,7 +8684,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>43</v>
@@ -8677,21 +8693,23 @@
         <v>43</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>163</v>
+        <v>423</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L61" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>43</v>
       </c>
@@ -8739,70 +8757,72 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>43</v>
+        <v>428</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>431</v>
+        <v>371</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>43</v>
+        <v>430</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>54</v>
+        <v>431</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>43</v>
       </c>
@@ -8850,28 +8870,28 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AF62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="AL62" t="s" s="2">
-        <v>152</v>
+        <v>437</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>43</v>
@@ -8879,7 +8899,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8890,7 +8910,7 @@
         <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>43</v>
@@ -8902,17 +8922,15 @@
         <v>43</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>438</v>
+        <v>54</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>439</v>
+        <v>66</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>43</v>
@@ -8961,19 +8979,19 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>437</v>
+        <v>68</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>43</v>
@@ -8982,7 +9000,7 @@
         <v>43</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>442</v>
+        <v>69</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>43</v>
@@ -8990,11 +9008,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>444</v>
+        <v>71</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9010,21 +9028,21 @@
         <v>43</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>445</v>
+        <v>72</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>446</v>
+        <v>73</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>43</v>
       </c>
@@ -9060,19 +9078,19 @@
         <v>43</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -9084,16 +9102,16 @@
         <v>43</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>449</v>
+        <v>43</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>410</v>
+        <v>69</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>43</v>
@@ -9101,7 +9119,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9109,7 +9127,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>52</v>
@@ -9121,18 +9139,20 @@
         <v>43</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>66</v>
+        <v>303</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>43</v>
@@ -9181,7 +9201,7 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>68</v>
+        <v>306</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -9190,10 +9210,10 @@
         <v>52</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>43</v>
@@ -9202,7 +9222,7 @@
         <v>43</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>43</v>
@@ -9210,18 +9230,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>43</v>
@@ -9230,19 +9250,19 @@
         <v>43</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>73</v>
+        <v>309</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>74</v>
+        <v>310</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9268,13 +9288,13 @@
         <v>43</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>43</v>
+        <v>312</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>43</v>
+        <v>313</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>43</v>
@@ -9292,19 +9312,19 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>43</v>
@@ -9313,7 +9333,7 @@
         <v>43</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>43</v>
@@ -9321,43 +9341,41 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>453</v>
+        <v>43</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>454</v>
+        <v>316</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>455</v>
+        <v>317</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>43</v>
       </c>
@@ -9405,19 +9423,19 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>456</v>
+        <v>319</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>43</v>
@@ -9426,7 +9444,7 @@
         <v>43</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>152</v>
+        <v>320</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>43</v>
@@ -9434,7 +9452,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9454,23 +9472,21 @@
         <v>43</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>459</v>
+        <v>323</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>43</v>
       </c>
@@ -9518,7 +9534,7 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>457</v>
+        <v>325</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9530,7 +9546,7 @@
         <v>43</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>43</v>
@@ -9539,7 +9555,7 @@
         <v>43</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>462</v>
+        <v>153</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>43</v>
@@ -9547,7 +9563,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9555,10 +9571,10 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>43</v>
@@ -9567,18 +9583,20 @@
         <v>43</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>43</v>
@@ -9627,19 +9645,19 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>43</v>
@@ -9648,7 +9666,7 @@
         <v>43</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>43</v>
@@ -9656,18 +9674,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>43</v>
@@ -9676,20 +9694,20 @@
         <v>43</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>54</v>
+        <v>452</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>43</v>
@@ -9738,28 +9756,28 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>474</v>
+        <v>437</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>43</v>
@@ -9767,7 +9785,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9778,7 +9796,7 @@
         <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>43</v>
@@ -9790,13 +9808,13 @@
         <v>43</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>189</v>
+        <v>54</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>476</v>
+        <v>66</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>477</v>
+        <v>67</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9823,13 +9841,13 @@
         <v>43</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>478</v>
+        <v>43</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>479</v>
+        <v>43</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>43</v>
@@ -9847,28 +9865,28 @@
         <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>475</v>
+        <v>68</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>473</v>
+        <v>43</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>480</v>
+        <v>69</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>43</v>
@@ -9876,18 +9894,18 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>43</v>
@@ -9899,15 +9917,17 @@
         <v>43</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>43</v>
@@ -9956,19 +9976,19 @@
         <v>43</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>43</v>
@@ -9985,11 +10005,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>71</v>
+        <v>460</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10002,24 +10022,26 @@
         <v>43</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>73</v>
+        <v>461</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>74</v>
+        <v>462</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="N73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>43</v>
       </c>
@@ -10055,19 +10077,19 @@
         <v>43</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -10088,7 +10110,7 @@
         <v>43</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>43</v>
@@ -10096,7 +10118,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10107,7 +10129,7 @@
         <v>41</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>43</v>
@@ -10116,22 +10138,22 @@
         <v>43</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>200</v>
+        <v>465</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>201</v>
+        <v>466</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>202</v>
+        <v>467</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>203</v>
+        <v>468</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>43</v>
@@ -10168,38 +10190,40 @@
         <v>43</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AB74" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>204</v>
+        <v>464</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>206</v>
+        <v>469</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>43</v>
@@ -10207,17 +10231,15 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>52</v>
@@ -10232,20 +10254,16 @@
         <v>53</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>106</v>
+        <v>471</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>43</v>
       </c>
@@ -10269,13 +10287,13 @@
         <v>43</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>486</v>
+        <v>43</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>487</v>
+        <v>43</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>43</v>
@@ -10293,28 +10311,28 @@
         <v>43</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>204</v>
+        <v>470</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>206</v>
+        <v>474</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>43</v>
@@ -10322,11 +10340,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>43</v>
+        <v>476</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10342,22 +10360,20 @@
         <v>43</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>250</v>
+        <v>477</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>253</v>
+        <v>479</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>43</v>
@@ -10406,7 +10422,7 @@
         <v>43</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>254</v>
+        <v>475</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -10418,24 +10434,24 @@
         <v>43</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>255</v>
+        <v>480</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>256</v>
+        <v>481</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10443,13 +10459,13 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>43</v>
@@ -10458,20 +10474,16 @@
         <v>43</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>490</v>
+        <v>190</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>43</v>
       </c>
@@ -10495,13 +10507,13 @@
         <v>43</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>43</v>
+        <v>485</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>43</v>
+        <v>486</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>43</v>
@@ -10519,7 +10531,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10531,16 +10543,16 @@
         <v>43</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>43</v>
@@ -10548,7 +10560,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10657,7 +10669,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10768,7 +10780,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10776,10 +10788,10 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>43</v>
@@ -10791,30 +10803,32 @@
         <v>53</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>499</v>
+        <v>201</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="N80" t="s" s="2">
-        <v>501</v>
+        <v>204</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
-        <v>502</v>
+        <v>43</v>
       </c>
       <c r="R80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>503</v>
+        <v>43</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>43</v>
@@ -10826,52 +10840,50 @@
         <v>43</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>504</v>
+        <v>43</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>505</v>
+        <v>43</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="AB80" s="2"/>
       <c r="AC80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>506</v>
+        <v>205</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>507</v>
+        <v>206</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>508</v>
+        <v>207</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>43</v>
@@ -10879,9 +10891,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B81" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="C81" t="s" s="2">
         <v>43</v>
       </c>
@@ -10902,17 +10916,19 @@
         <v>53</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="N81" t="s" s="2">
-        <v>512</v>
+        <v>204</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -10925,7 +10941,7 @@
         <v>43</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>43</v>
@@ -10937,13 +10953,13 @@
         <v>43</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>134</v>
+        <v>493</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>135</v>
+        <v>494</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>43</v>
@@ -10961,28 +10977,28 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>513</v>
+        <v>205</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>514</v>
+        <v>207</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>43</v>
@@ -10990,7 +11006,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11010,22 +11026,22 @@
         <v>43</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>516</v>
+        <v>54</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>517</v>
+        <v>251</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>518</v>
+        <v>252</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>519</v>
+        <v>253</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>520</v>
+        <v>254</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
@@ -11074,7 +11090,7 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>521</v>
+        <v>255</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -11086,24 +11102,24 @@
         <v>43</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>522</v>
+        <v>256</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>523</v>
+        <v>257</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11117,28 +11133,28 @@
         <v>52</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>43</v>
@@ -11151,7 +11167,7 @@
         <v>43</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>530</v>
+        <v>43</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>43</v>
@@ -11187,28 +11203,28 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>531</v>
+        <v>496</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>532</v>
+        <v>480</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>533</v>
+        <v>502</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>43</v>
@@ -11216,7 +11232,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>534</v>
+        <v>503</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11236,23 +11252,19 @@
         <v>43</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>535</v>
+        <v>54</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>536</v>
+        <v>66</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>539</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>43</v>
       </c>
@@ -11300,7 +11312,7 @@
         <v>43</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>540</v>
+        <v>68</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -11312,7 +11324,7 @@
         <v>43</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>43</v>
@@ -11321,7 +11333,7 @@
         <v>43</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>541</v>
+        <v>69</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>43</v>
@@ -11329,18 +11341,18 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>542</v>
+        <v>504</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>43</v>
@@ -11349,23 +11361,21 @@
         <v>43</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>516</v>
+        <v>72</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>543</v>
+        <v>73</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>544</v>
+        <v>74</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>546</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>43</v>
       </c>
@@ -11401,31 +11411,31 @@
         <v>43</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>547</v>
+        <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>43</v>
@@ -11434,7 +11444,7 @@
         <v>43</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>548</v>
+        <v>69</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>43</v>
@@ -11442,7 +11452,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>549</v>
+        <v>505</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11465,30 +11475,30 @@
         <v>53</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>550</v>
+        <v>506</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>551</v>
+        <v>507</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>552</v>
+        <v>508</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
-        <v>43</v>
+        <v>509</v>
       </c>
       <c r="R86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>553</v>
+        <v>510</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>43</v>
@@ -11500,13 +11510,13 @@
         <v>43</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>43</v>
+        <v>511</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>43</v>
+        <v>512</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>43</v>
@@ -11524,7 +11534,7 @@
         <v>43</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>554</v>
+        <v>513</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -11536,16 +11546,16 @@
         <v>43</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>43</v>
+        <v>514</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>555</v>
+        <v>515</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>43</v>
@@ -11553,7 +11563,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>556</v>
+        <v>516</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11576,17 +11586,17 @@
         <v>53</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>557</v>
+        <v>129</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>558</v>
+        <v>517</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>559</v>
+        <v>518</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>560</v>
+        <v>519</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>43</v>
@@ -11599,7 +11609,7 @@
         <v>43</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>43</v>
@@ -11611,13 +11621,13 @@
         <v>43</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>43</v>
@@ -11635,35 +11645,709 @@
         <v>43</v>
       </c>
       <c r="AE87" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE92" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="AF87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AM87" t="s" s="2">
+      <c r="AF92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM87">
+  <autoFilter ref="A1:AM93">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11673,7 +12357,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI86">
+  <conditionalFormatting sqref="A2:AI92">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/diagnosticreport-imag-mhr-1.xlsx
+++ b/output/DiagnosticReport/diagnosticreport-imag-mhr-1.xlsx
@@ -8458,7 +8458,7 @@
         <v>52</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>53</v>

--- a/output/DiagnosticReport/diagnosticreport-imag-mhr-1.xlsx
+++ b/output/DiagnosticReport/diagnosticreport-imag-mhr-1.xlsx
@@ -8458,7 +8458,7 @@
         <v>52</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>53</v>

--- a/output/DiagnosticReport/diagnosticreport-imag-mhr-1.xlsx
+++ b/output/DiagnosticReport/diagnosticreport-imag-mhr-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3271" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3271" uniqueCount="568">
   <si>
     <t>Path</t>
   </si>
@@ -160,7 +160,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-dh-dir-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-dir-02:The performer shall at least have a reference or an identifier with at least a system and a value {performer.reference.exists() or performer.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-dir-03:The requester of the diagnostic imaging order shall be a PractitionerRole {basedOn.resolve().requester.resolve().where($this is PractitionerRole).exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-dh-dir-05:One category shall be 'imaging' 'http://terminology.hl7.org/CodeSystem/observation-category' {category.coding.where(system='http://terminology.hl7.org/CodeSystem/observation-category' and code='imaging').exists()}inv-dh-dir-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-dir-02:The performer shall at least have a reference or an identifier with at least a system and a value {performer.reference.exists() or performer.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-dir-03:The requester of the diagnostic imaging order shall be a PractitionerRole {basedOn.resolve().requester.resolve().where($this is PractitionerRole).exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1072,14 +1072,6 @@
   </si>
   <si>
     <t>Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="imaging"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
@@ -7265,7 +7257,7 @@
         <v>43</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>340</v>
+        <v>43</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>43</v>
@@ -7284,7 +7276,7 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>43</v>
@@ -7320,22 +7312,22 @@
         <v>43</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>344</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7357,10 +7349,10 @@
         <v>190</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7390,11 +7382,11 @@
         <v>134</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>43</v>
       </c>
@@ -7411,7 +7403,7 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>52</v>
@@ -7426,21 +7418,21 @@
         <v>87</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>354</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7549,7 +7541,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7660,7 +7652,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7732,7 +7724,7 @@
         <v>43</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
@@ -7771,10 +7763,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>43</v>
@@ -7799,7 +7791,7 @@
         <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>202</v>
@@ -7837,7 +7829,7 @@
       </c>
       <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>43</v>
@@ -7884,7 +7876,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7997,11 +7989,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8020,17 +8012,17 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>43</v>
@@ -8079,7 +8071,7 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -8094,25 +8086,25 @@
         <v>87</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>372</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8131,19 +8123,19 @@
         <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>43</v>
@@ -8192,7 +8184,7 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -8207,25 +8199,25 @@
         <v>87</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>383</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8244,19 +8236,19 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>43</v>
@@ -8305,7 +8297,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -8320,25 +8312,25 @@
         <v>87</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>394</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8360,16 +8352,16 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>43</v>
@@ -8418,7 +8410,7 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8436,22 +8428,22 @@
         <v>43</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8470,19 +8462,19 @@
         <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>43</v>
@@ -8531,7 +8523,7 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8546,25 +8538,25 @@
         <v>87</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AL59" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>414</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8583,19 +8575,19 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>420</v>
-      </c>
       <c r="N60" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>43</v>
@@ -8644,7 +8636,7 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8659,21 +8651,21 @@
         <v>87</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>414</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8696,19 +8688,19 @@
         <v>43</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>43</v>
@@ -8757,7 +8749,7 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8775,10 +8767,10 @@
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>43</v>
@@ -8786,11 +8778,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8809,19 +8801,19 @@
         <v>43</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>43</v>
@@ -8870,7 +8862,7 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8888,10 +8880,10 @@
         <v>43</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>43</v>
@@ -8899,7 +8891,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9008,7 +9000,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9119,7 +9111,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9230,7 +9222,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9341,7 +9333,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9452,7 +9444,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9563,7 +9555,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9586,16 +9578,16 @@
         <v>43</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9645,7 +9637,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9666,7 +9658,7 @@
         <v>43</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>43</v>
@@ -9674,11 +9666,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9697,17 +9689,17 @@
         <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>43</v>
@@ -9756,7 +9748,7 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9774,10 +9766,10 @@
         <v>43</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>43</v>
@@ -9785,7 +9777,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9894,7 +9886,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10005,11 +9997,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10031,10 +10023,10 @@
         <v>72</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>75</v>
@@ -10089,7 +10081,7 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -10118,7 +10110,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10144,16 +10136,16 @@
         <v>54</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>43</v>
@@ -10202,7 +10194,7 @@
         <v>43</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -10223,7 +10215,7 @@
         <v>43</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>43</v>
@@ -10231,7 +10223,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10254,13 +10246,13 @@
         <v>53</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10311,7 +10303,7 @@
         <v>43</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>52</v>
@@ -10332,7 +10324,7 @@
         <v>43</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>43</v>
@@ -10340,11 +10332,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10366,14 +10358,14 @@
         <v>54</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>43</v>
@@ -10422,7 +10414,7 @@
         <v>43</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -10440,10 +10432,10 @@
         <v>43</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>43</v>
@@ -10451,7 +10443,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10477,10 +10469,10 @@
         <v>190</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10510,11 +10502,11 @@
         <v>119</v>
       </c>
       <c r="X77" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="Y77" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="Y77" t="s" s="2">
-        <v>486</v>
-      </c>
       <c r="Z77" t="s" s="2">
         <v>43</v>
       </c>
@@ -10531,7 +10523,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10549,10 +10541,10 @@
         <v>43</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>43</v>
@@ -10560,7 +10552,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10669,7 +10661,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10780,7 +10772,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10852,7 +10844,7 @@
         <v>43</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AB80" s="2"/>
       <c r="AC80" t="s" s="2">
@@ -10891,10 +10883,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>43</v>
@@ -10919,7 +10911,7 @@
         <v>107</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>202</v>
@@ -10956,10 +10948,10 @@
         <v>184</v>
       </c>
       <c r="X81" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="Y81" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>43</v>
@@ -11006,7 +10998,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11119,7 +11111,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11142,19 +11134,19 @@
         <v>43</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>43</v>
@@ -11203,7 +11195,7 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -11221,10 +11213,10 @@
         <v>43</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>43</v>
@@ -11232,7 +11224,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11341,7 +11333,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11452,7 +11444,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11478,27 +11470,27 @@
         <v>129</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S86" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>43</v>
@@ -11513,28 +11505,28 @@
         <v>184</v>
       </c>
       <c r="X86" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="Y86" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="Y86" t="s" s="2">
+      <c r="Z86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE86" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -11552,10 +11544,10 @@
         <v>43</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>43</v>
@@ -11563,7 +11555,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11589,14 +11581,14 @@
         <v>129</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>43</v>
@@ -11645,7 +11637,7 @@
         <v>43</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -11666,7 +11658,7 @@
         <v>43</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>43</v>
@@ -11674,7 +11666,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11697,19 +11689,19 @@
         <v>43</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>43</v>
@@ -11758,7 +11750,7 @@
         <v>43</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -11776,10 +11768,10 @@
         <v>43</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>43</v>
@@ -11787,7 +11779,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11810,19 +11802,19 @@
         <v>53</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="K89" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="K89" t="s" s="2">
+      <c r="L89" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>43</v>
@@ -11835,43 +11827,43 @@
         <v>43</v>
       </c>
       <c r="S89" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE89" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11889,10 +11881,10 @@
         <v>43</v>
       </c>
       <c r="AK89" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AL89" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>43</v>
@@ -11900,7 +11892,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11923,19 +11915,19 @@
         <v>53</v>
       </c>
       <c r="J90" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="K90" t="s" s="2">
+      <c r="L90" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>43</v>
@@ -11984,7 +11976,7 @@
         <v>43</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -12005,7 +11997,7 @@
         <v>43</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>43</v>
@@ -12013,7 +12005,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12036,19 +12028,19 @@
         <v>53</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>43</v>
@@ -12097,7 +12089,7 @@
         <v>43</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -12118,7 +12110,7 @@
         <v>43</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>43</v>
@@ -12126,7 +12118,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12152,14 +12144,14 @@
         <v>54</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>43</v>
@@ -12172,43 +12164,43 @@
         <v>43</v>
       </c>
       <c r="S92" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE92" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -12229,7 +12221,7 @@
         <v>43</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>43</v>
@@ -12237,7 +12229,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12260,17 +12252,17 @@
         <v>53</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="K93" t="s" s="2">
+      <c r="L93" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>43</v>
@@ -12319,7 +12311,7 @@
         <v>43</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -12340,7 +12332,7 @@
         <v>43</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>43</v>

--- a/output/DiagnosticReport/diagnosticreport-imag-mhr-1.xlsx
+++ b/output/DiagnosticReport/diagnosticreport-imag-mhr-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$83</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3271" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="551">
   <si>
     <t>Path</t>
   </si>
@@ -1117,31 +1117,6 @@
     <t>FiveWs.what[x]</t>
   </si>
   <si>
-    <t>DiagnosticReport.code.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.coding</t>
-  </si>
-  <si>
-    <t>value:system}
-value:code}</t>
-  </si>
-  <si>
-    <t>snomedImagingProcedures</t>
-  </si>
-  <si>
-    <t>Diagnostic Imaging Procedures (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.text</t>
-  </si>
-  <si>
     <t>DiagnosticReport.subject</t>
   </si>
   <si>
@@ -1529,38 +1504,10 @@
     <t>One or more codes that represent the summary conclusion (interpretation/impression) of the diagnostic report.</t>
   </si>
   <si>
-    <t>Diagnosis codes provided as adjuncts to the report.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
   </si>
   <si>
     <t>inboundRelationship[typeCode=SPRT].source[classCode=OBS, moodCode=EVN, code=LOINC:54531-9].value (type=CD)</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.conclusionCode.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.conclusionCode.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.conclusionCode.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>snomedFinding</t>
-  </si>
-  <si>
-    <t>Clinical Finding (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.conclusionCode.text</t>
   </si>
   <si>
     <t>DiagnosticReport.presentedForm</t>
@@ -1933,7 +1880,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM93"/>
+  <dimension ref="A1:AM83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1943,7 +1890,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="48.28125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.32421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="60.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -7430,41 +7377,43 @@
         <v>353</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>43</v>
+        <v>355</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>54</v>
+        <v>356</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>66</v>
+        <v>357</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>67</v>
+        <v>358</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>43</v>
       </c>
@@ -7512,7 +7461,7 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>68</v>
+        <v>354</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7524,35 +7473,35 @@
         <v>43</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>43</v>
+        <v>360</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>43</v>
+        <v>361</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>69</v>
+        <v>362</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>43</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>71</v>
+        <v>365</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>43</v>
@@ -7561,21 +7510,23 @@
         <v>43</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>72</v>
+        <v>366</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>73</v>
+        <v>367</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>74</v>
+        <v>368</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>43</v>
       </c>
@@ -7611,62 +7562,62 @@
         <v>43</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>43</v>
+        <v>371</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>43</v>
+        <v>372</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>69</v>
+        <v>373</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>43</v>
+        <v>374</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>43</v>
+        <v>376</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>43</v>
@@ -7675,19 +7626,19 @@
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>107</v>
+        <v>377</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>201</v>
+        <v>378</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>202</v>
+        <v>379</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>203</v>
+        <v>380</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>204</v>
+        <v>381</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>43</v>
@@ -7724,23 +7675,25 @@
         <v>43</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AB52" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>205</v>
+        <v>375</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>43</v>
@@ -7749,37 +7702,35 @@
         <v>87</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>43</v>
+        <v>382</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>206</v>
+        <v>383</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>207</v>
+        <v>384</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>43</v>
+        <v>385</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>43</v>
+        <v>387</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>43</v>
@@ -7788,19 +7739,19 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>202</v>
+        <v>389</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>203</v>
+        <v>390</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>204</v>
+        <v>391</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>43</v>
@@ -7825,11 +7776,13 @@
         <v>43</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X53" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y53" t="s" s="2">
-        <v>360</v>
+        <v>43</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>43</v>
@@ -7847,13 +7800,13 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>205</v>
+        <v>386</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>43</v>
@@ -7865,32 +7818,32 @@
         <v>43</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>206</v>
+        <v>392</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>207</v>
+        <v>393</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>43</v>
+        <v>394</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>43</v>
+        <v>396</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>43</v>
@@ -7899,19 +7852,19 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>54</v>
+        <v>397</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>251</v>
+        <v>398</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>252</v>
+        <v>399</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>253</v>
+        <v>400</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>43</v>
@@ -7960,13 +7913,13 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>255</v>
+        <v>395</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>43</v>
@@ -7975,35 +7928,35 @@
         <v>87</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>43</v>
+        <v>402</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>256</v>
+        <v>403</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>257</v>
+        <v>404</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>43</v>
+        <v>405</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>43</v>
@@ -8012,17 +7965,19 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="N55" t="s" s="2">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>43</v>
@@ -8071,13 +8026,13 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>43</v>
@@ -8086,32 +8041,32 @@
         <v>87</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>371</v>
+        <v>405</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>373</v>
+        <v>43</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>43</v>
@@ -8120,22 +8075,22 @@
         <v>43</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>43</v>
@@ -8184,13 +8139,13 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>43</v>
@@ -8199,32 +8154,32 @@
         <v>87</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>379</v>
+        <v>43</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>382</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>52</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>53</v>
@@ -8233,22 +8188,22 @@
         <v>43</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>43</v>
@@ -8297,13 +8252,13 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>43</v>
@@ -8312,57 +8267,53 @@
         <v>87</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>390</v>
+        <v>43</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>393</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>395</v>
+        <v>43</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>396</v>
+        <v>66</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>43</v>
       </c>
@@ -8410,7 +8361,7 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>394</v>
+        <v>68</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8422,60 +8373,58 @@
         <v>43</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>400</v>
+        <v>43</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>401</v>
+        <v>69</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>402</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>404</v>
+        <v>71</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>405</v>
+        <v>72</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>406</v>
+        <v>73</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>407</v>
+        <v>74</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>43</v>
       </c>
@@ -8511,19 +8460,19 @@
         <v>43</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8535,35 +8484,35 @@
         <v>43</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>410</v>
+        <v>43</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>411</v>
+        <v>43</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>412</v>
+        <v>69</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>413</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>415</v>
+        <v>43</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>43</v>
@@ -8575,20 +8524,18 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>416</v>
+        <v>54</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>417</v>
+        <v>303</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>418</v>
+        <v>304</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>43</v>
       </c>
@@ -8636,36 +8583,36 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>414</v>
+        <v>306</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>410</v>
+        <v>43</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>420</v>
+        <v>43</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>412</v>
+        <v>153</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>413</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8676,7 +8623,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>43</v>
@@ -8685,23 +8632,21 @@
         <v>43</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>422</v>
+        <v>95</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>423</v>
+        <v>309</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>424</v>
+        <v>310</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>43</v>
       </c>
@@ -8725,13 +8670,13 @@
         <v>43</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>43</v>
+        <v>312</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>43</v>
+        <v>313</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>43</v>
@@ -8749,13 +8694,13 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>421</v>
+        <v>314</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>43</v>
@@ -8767,54 +8712,52 @@
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>427</v>
+        <v>43</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>370</v>
+        <v>153</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>429</v>
+        <v>43</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="J62" t="s" s="2">
-        <v>430</v>
+        <v>164</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>431</v>
+        <v>316</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>432</v>
+        <v>317</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>43</v>
       </c>
@@ -8862,13 +8805,13 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>428</v>
+        <v>319</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>43</v>
@@ -8880,10 +8823,10 @@
         <v>43</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>435</v>
+        <v>43</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>436</v>
+        <v>320</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>43</v>
@@ -8891,7 +8834,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8911,18 +8854,20 @@
         <v>43</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>66</v>
+        <v>322</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>43</v>
@@ -8971,7 +8916,7 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>68</v>
+        <v>325</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8983,7 +8928,7 @@
         <v>43</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>43</v>
@@ -8992,7 +8937,7 @@
         <v>43</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>43</v>
@@ -9000,11 +8945,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9023,16 +8968,16 @@
         <v>43</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>72</v>
+        <v>436</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>73</v>
+        <v>437</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>74</v>
+        <v>438</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>75</v>
+        <v>439</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9070,19 +9015,19 @@
         <v>43</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -9094,7 +9039,7 @@
         <v>43</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>43</v>
@@ -9103,7 +9048,7 @@
         <v>43</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>69</v>
+        <v>440</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>43</v>
@@ -9111,18 +9056,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>43</v>
+        <v>442</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>43</v>
@@ -9134,18 +9079,18 @@
         <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>54</v>
+        <v>443</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>303</v>
+        <v>444</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>43</v>
       </c>
@@ -9193,16 +9138,16 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>306</v>
+        <v>441</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>307</v>
+        <v>43</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>87</v>
@@ -9211,10 +9156,10 @@
         <v>43</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>43</v>
+        <v>447</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>153</v>
+        <v>428</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>43</v>
@@ -9222,7 +9167,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9242,20 +9187,18 @@
         <v>43</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>309</v>
+        <v>66</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>43</v>
@@ -9280,13 +9223,13 @@
         <v>43</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>312</v>
+        <v>43</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>313</v>
+        <v>43</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>43</v>
@@ -9304,7 +9247,7 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>314</v>
+        <v>68</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -9316,7 +9259,7 @@
         <v>43</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>43</v>
@@ -9325,7 +9268,7 @@
         <v>43</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>43</v>
@@ -9333,18 +9276,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>43</v>
@@ -9353,19 +9296,19 @@
         <v>43</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>316</v>
+        <v>73</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>317</v>
+        <v>74</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>318</v>
+        <v>75</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9415,19 +9358,19 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>43</v>
@@ -9436,7 +9379,7 @@
         <v>43</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>320</v>
+        <v>69</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>43</v>
@@ -9444,41 +9387,43 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>43</v>
+        <v>451</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>322</v>
+        <v>452</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>323</v>
+        <v>453</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>43</v>
       </c>
@@ -9526,19 +9471,19 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>325</v>
+        <v>454</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>43</v>
@@ -9555,7 +9500,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9566,7 +9511,7 @@
         <v>41</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>43</v>
@@ -9578,18 +9523,20 @@
         <v>43</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>444</v>
+        <v>54</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>43</v>
       </c>
@@ -9637,13 +9584,13 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>43</v>
@@ -9658,7 +9605,7 @@
         <v>43</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>43</v>
@@ -9666,18 +9613,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>450</v>
+        <v>43</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>43</v>
@@ -9689,18 +9636,16 @@
         <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>454</v>
-      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>43</v>
       </c>
@@ -9748,13 +9693,13 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>43</v>
@@ -9766,10 +9711,10 @@
         <v>43</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>455</v>
+        <v>43</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>43</v>
@@ -9777,11 +9722,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>43</v>
+        <v>467</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9803,13 +9748,15 @@
         <v>54</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>66</v>
+        <v>468</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>67</v>
+        <v>469</v>
       </c>
       <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>43</v>
       </c>
@@ -9857,7 +9804,7 @@
         <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>68</v>
+        <v>466</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9869,16 +9816,16 @@
         <v>43</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>43</v>
+        <v>471</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>69</v>
+        <v>472</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>43</v>
@@ -9886,11 +9833,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9909,17 +9856,15 @@
         <v>43</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>73</v>
+        <v>474</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>43</v>
@@ -9944,13 +9889,11 @@
         <v>43</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="X72" s="2"/>
       <c r="Y72" t="s" s="2">
-        <v>43</v>
+        <v>476</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>43</v>
@@ -9968,7 +9911,7 @@
         <v>43</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9980,59 +9923,59 @@
         <v>43</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>43</v>
+        <v>471</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>69</v>
+        <v>477</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>459</v>
+        <v>43</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>72</v>
+        <v>479</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>75</v>
+        <v>482</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>160</v>
+        <v>483</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>43</v>
@@ -10081,7 +10024,7 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -10093,16 +10036,16 @@
         <v>43</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>43</v>
+        <v>471</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>153</v>
+        <v>484</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>43</v>
@@ -10110,7 +10053,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10136,17 +10079,13 @@
         <v>54</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>464</v>
+        <v>66</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>43</v>
       </c>
@@ -10194,7 +10133,7 @@
         <v>43</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>463</v>
+        <v>68</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -10206,7 +10145,7 @@
         <v>43</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>43</v>
@@ -10215,7 +10154,7 @@
         <v>43</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>468</v>
+        <v>69</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>43</v>
@@ -10223,18 +10162,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>43</v>
@@ -10243,18 +10182,20 @@
         <v>43</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>470</v>
+        <v>72</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>471</v>
+        <v>73</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>43</v>
@@ -10291,31 +10232,31 @@
         <v>43</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>43</v>
@@ -10324,7 +10265,7 @@
         <v>43</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>473</v>
+        <v>69</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>43</v>
@@ -10332,15 +10273,15 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>475</v>
+        <v>43</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>52</v>
@@ -10352,33 +10293,33 @@
         <v>43</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
-        <v>43</v>
+        <v>491</v>
       </c>
       <c r="R76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>43</v>
+        <v>492</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>43</v>
@@ -10390,13 +10331,13 @@
         <v>43</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>43</v>
+        <v>493</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>43</v>
+        <v>494</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>43</v>
@@ -10414,7 +10355,7 @@
         <v>43</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -10432,10 +10373,10 @@
         <v>43</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>43</v>
@@ -10443,7 +10384,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10454,7 +10395,7 @@
         <v>41</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>43</v>
@@ -10463,19 +10404,21 @@
         <v>43</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>43</v>
       </c>
@@ -10487,7 +10430,7 @@
         <v>43</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>43</v>
@@ -10499,13 +10442,13 @@
         <v>43</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>484</v>
+        <v>135</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>485</v>
+        <v>136</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>43</v>
@@ -10523,13 +10466,13 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>43</v>
@@ -10541,10 +10484,10 @@
         <v>43</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>479</v>
+        <v>43</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>43</v>
@@ -10552,7 +10495,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10575,16 +10518,20 @@
         <v>43</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>54</v>
+        <v>505</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>66</v>
+        <v>506</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>43</v>
       </c>
@@ -10632,7 +10579,7 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>68</v>
+        <v>510</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10644,16 +10591,16 @@
         <v>43</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>43</v>
+        <v>511</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>69</v>
+        <v>512</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>43</v>
@@ -10661,18 +10608,18 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>43</v>
@@ -10681,21 +10628,23 @@
         <v>43</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>72</v>
+        <v>514</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>73</v>
+        <v>515</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>74</v>
+        <v>516</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>43</v>
       </c>
@@ -10707,7 +10656,7 @@
         <v>43</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>43</v>
+        <v>519</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>43</v>
@@ -10731,40 +10680,40 @@
         <v>43</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>79</v>
+        <v>520</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>43</v>
+        <v>521</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>69</v>
+        <v>522</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>43</v>
@@ -10772,7 +10721,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>489</v>
+        <v>523</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10783,7 +10732,7 @@
         <v>41</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>43</v>
@@ -10795,19 +10744,19 @@
         <v>53</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>107</v>
+        <v>524</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>201</v>
+        <v>525</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>202</v>
+        <v>526</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>203</v>
+        <v>527</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>204</v>
+        <v>528</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>43</v>
@@ -10844,23 +10793,25 @@
         <v>43</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AB80" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>205</v>
+        <v>529</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>43</v>
@@ -10872,10 +10823,10 @@
         <v>43</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>206</v>
+        <v>43</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>207</v>
+        <v>530</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>43</v>
@@ -10883,17 +10834,15 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>52</v>
@@ -10908,19 +10857,19 @@
         <v>53</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>107</v>
+        <v>505</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>492</v>
+        <v>532</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>202</v>
+        <v>533</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>203</v>
+        <v>534</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>204</v>
+        <v>535</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -10945,13 +10894,13 @@
         <v>43</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>492</v>
+        <v>43</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>493</v>
+        <v>43</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>43</v>
@@ -10969,13 +10918,13 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>205</v>
+        <v>536</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>43</v>
@@ -10987,10 +10936,10 @@
         <v>43</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>206</v>
+        <v>43</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>207</v>
+        <v>537</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>43</v>
@@ -10998,7 +10947,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>494</v>
+        <v>538</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11006,7 +10955,7 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>52</v>
@@ -11024,16 +10973,14 @@
         <v>54</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>251</v>
+        <v>539</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>254</v>
+        <v>541</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
@@ -11046,7 +10993,7 @@
         <v>43</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>43</v>
+        <v>542</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>43</v>
@@ -11082,7 +11029,7 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>255</v>
+        <v>543</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -11100,18 +11047,18 @@
         <v>43</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>256</v>
+        <v>43</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>257</v>
+        <v>544</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>495</v>
+        <v>545</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11119,34 +11066,32 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I83" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="J83" t="s" s="2">
-        <v>496</v>
+        <v>546</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>497</v>
+        <v>547</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>43</v>
@@ -11195,13 +11140,13 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>43</v>
@@ -11213,1133 +11158,17 @@
         <v>43</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>479</v>
+        <v>43</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AM93" t="s" s="2">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM93">
+  <autoFilter ref="A1:AM83">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12349,7 +11178,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI92">
+  <conditionalFormatting sqref="A2:AI82">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/diagnosticreport-imag-mhr-1.xlsx
+++ b/output/DiagnosticReport/diagnosticreport-imag-mhr-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$93</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3271" uniqueCount="568">
   <si>
     <t>Path</t>
   </si>
@@ -1117,6 +1117,31 @@
     <t>FiveWs.what[x]</t>
   </si>
   <si>
+    <t>DiagnosticReport.code.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.coding</t>
+  </si>
+  <si>
+    <t>value:system}
+value:code}</t>
+  </si>
+  <si>
+    <t>snomedImagingProcedures</t>
+  </si>
+  <si>
+    <t>Diagnostic Imaging Procedures (SNOMED CT)</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.text</t>
+  </si>
+  <si>
     <t>DiagnosticReport.subject</t>
   </si>
   <si>
@@ -1504,10 +1529,38 @@
     <t>One or more codes that represent the summary conclusion (interpretation/impression) of the diagnostic report.</t>
   </si>
   <si>
+    <t>Diagnosis codes provided as adjuncts to the report.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=SPRT].source[classCode=OBS, moodCode=EVN, code=LOINC:54531-9].value (type=CD)</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.conclusionCode.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.conclusionCode.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.conclusionCode.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>snomedFinding</t>
+  </si>
+  <si>
+    <t>Clinical Finding (SNOMED CT)</t>
+  </si>
+  <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
   </si>
   <si>
-    <t>inboundRelationship[typeCode=SPRT].source[classCode=OBS, moodCode=EVN, code=LOINC:54531-9].value (type=CD)</t>
+    <t>DiagnosticReport.conclusionCode.text</t>
   </si>
   <si>
     <t>DiagnosticReport.presentedForm</t>
@@ -1880,7 +1933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM83"/>
+  <dimension ref="A1:AM93"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1890,7 +1943,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="48.28125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.32421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.44140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="60.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -7377,43 +7430,41 @@
         <v>353</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>355</v>
+        <v>43</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>356</v>
+        <v>54</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>357</v>
+        <v>66</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>358</v>
+        <v>67</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>359</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>43</v>
       </c>
@@ -7461,7 +7512,7 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>354</v>
+        <v>68</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7473,35 +7524,35 @@
         <v>43</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>360</v>
+        <v>43</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>361</v>
+        <v>43</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>362</v>
+        <v>69</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>363</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>365</v>
+        <v>71</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>43</v>
@@ -7510,23 +7561,21 @@
         <v>43</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>366</v>
+        <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>367</v>
+        <v>73</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>368</v>
+        <v>74</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>43</v>
       </c>
@@ -7562,62 +7611,62 @@
         <v>43</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>371</v>
+        <v>43</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>372</v>
+        <v>43</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>373</v>
+        <v>69</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>374</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>376</v>
+        <v>43</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>43</v>
@@ -7626,19 +7675,19 @@
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>377</v>
+        <v>107</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>378</v>
+        <v>201</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>379</v>
+        <v>202</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>380</v>
+        <v>203</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>381</v>
+        <v>204</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>43</v>
@@ -7675,25 +7724,23 @@
         <v>43</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>375</v>
+        <v>205</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>43</v>
@@ -7702,35 +7749,37 @@
         <v>87</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>382</v>
+        <v>43</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>383</v>
+        <v>206</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>384</v>
+        <v>207</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>385</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="C53" t="s" s="2">
-        <v>387</v>
+        <v>43</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>43</v>
@@ -7739,19 +7788,19 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>389</v>
+        <v>202</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>390</v>
+        <v>203</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>391</v>
+        <v>204</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>43</v>
@@ -7776,13 +7825,11 @@
         <v>43</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>43</v>
+        <v>360</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>43</v>
@@ -7800,13 +7847,13 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>386</v>
+        <v>205</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>43</v>
@@ -7818,32 +7865,32 @@
         <v>43</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>392</v>
+        <v>206</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>393</v>
+        <v>207</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>394</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>396</v>
+        <v>43</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>43</v>
@@ -7852,19 +7899,19 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>397</v>
+        <v>54</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>398</v>
+        <v>251</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>399</v>
+        <v>252</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>400</v>
+        <v>253</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>401</v>
+        <v>254</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>43</v>
@@ -7913,13 +7960,13 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>395</v>
+        <v>255</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>43</v>
@@ -7928,35 +7975,35 @@
         <v>87</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>402</v>
+        <v>43</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>403</v>
+        <v>256</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>404</v>
+        <v>257</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>405</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>43</v>
@@ -7965,19 +8012,17 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>409</v>
+        <v>365</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>43</v>
@@ -8026,13 +8071,13 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>43</v>
@@ -8041,32 +8086,32 @@
         <v>87</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>405</v>
+        <v>371</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>43</v>
+        <v>373</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>43</v>
@@ -8075,22 +8120,22 @@
         <v>43</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>43</v>
@@ -8139,13 +8184,13 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>43</v>
@@ -8154,32 +8199,32 @@
         <v>87</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>43</v>
+        <v>379</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>419</v>
+        <v>380</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>43</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>52</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>53</v>
@@ -8188,22 +8233,22 @@
         <v>43</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>43</v>
@@ -8252,13 +8297,13 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>43</v>
@@ -8267,53 +8312,57 @@
         <v>87</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>43</v>
+        <v>390</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>43</v>
+        <v>393</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>43</v>
+        <v>395</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>66</v>
+        <v>396</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>43</v>
       </c>
@@ -8361,7 +8410,7 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>68</v>
+        <v>394</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8373,58 +8422,60 @@
         <v>43</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>43</v>
+        <v>400</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>69</v>
+        <v>401</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>43</v>
+        <v>402</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>71</v>
+        <v>404</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>72</v>
+        <v>405</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>73</v>
+        <v>406</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>74</v>
+        <v>407</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>43</v>
       </c>
@@ -8460,19 +8511,19 @@
         <v>43</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8484,35 +8535,35 @@
         <v>43</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>43</v>
+        <v>410</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>43</v>
+        <v>411</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>69</v>
+        <v>412</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>43</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>43</v>
+        <v>415</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>43</v>
@@ -8524,18 +8575,20 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>54</v>
+        <v>416</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>303</v>
+        <v>417</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>304</v>
+        <v>418</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>43</v>
       </c>
@@ -8583,36 +8636,36 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>306</v>
+        <v>414</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>307</v>
+        <v>43</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>43</v>
+        <v>410</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>43</v>
+        <v>420</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>153</v>
+        <v>412</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>43</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8623,7 +8676,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>43</v>
@@ -8632,21 +8685,23 @@
         <v>43</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>95</v>
+        <v>422</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>309</v>
+        <v>423</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>310</v>
+        <v>424</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>43</v>
       </c>
@@ -8670,13 +8725,13 @@
         <v>43</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>312</v>
+        <v>43</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>313</v>
+        <v>43</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>43</v>
@@ -8694,13 +8749,13 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>314</v>
+        <v>421</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>43</v>
@@ -8712,52 +8767,54 @@
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>43</v>
+        <v>427</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>153</v>
+        <v>370</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>43</v>
+        <v>429</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>164</v>
+        <v>430</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>316</v>
+        <v>431</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>317</v>
+        <v>432</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>43</v>
       </c>
@@ -8805,13 +8862,13 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>319</v>
+        <v>428</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>43</v>
@@ -8823,10 +8880,10 @@
         <v>43</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>43</v>
+        <v>435</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>320</v>
+        <v>436</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>43</v>
@@ -8834,7 +8891,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8854,20 +8911,18 @@
         <v>43</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>322</v>
+        <v>66</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>43</v>
@@ -8916,7 +8971,7 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>325</v>
+        <v>68</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8928,7 +8983,7 @@
         <v>43</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>43</v>
@@ -8937,7 +8992,7 @@
         <v>43</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>43</v>
@@ -8945,11 +9000,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8968,16 +9023,16 @@
         <v>43</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>436</v>
+        <v>72</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>437</v>
+        <v>73</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>438</v>
+        <v>74</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>439</v>
+        <v>75</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9015,19 +9070,19 @@
         <v>43</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -9039,7 +9094,7 @@
         <v>43</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>43</v>
@@ -9048,7 +9103,7 @@
         <v>43</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>440</v>
+        <v>69</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>43</v>
@@ -9056,18 +9111,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>442</v>
+        <v>43</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>43</v>
@@ -9079,18 +9134,18 @@
         <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>443</v>
+        <v>54</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>444</v>
+        <v>303</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>43</v>
       </c>
@@ -9138,16 +9193,16 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>441</v>
+        <v>306</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>87</v>
@@ -9156,10 +9211,10 @@
         <v>43</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>447</v>
+        <v>43</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>428</v>
+        <v>153</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>43</v>
@@ -9167,7 +9222,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9187,18 +9242,20 @@
         <v>43</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>66</v>
+        <v>309</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>43</v>
@@ -9223,13 +9280,13 @@
         <v>43</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>43</v>
+        <v>312</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>43</v>
+        <v>313</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>43</v>
@@ -9247,7 +9304,7 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>68</v>
+        <v>314</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -9259,7 +9316,7 @@
         <v>43</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>43</v>
@@ -9268,7 +9325,7 @@
         <v>43</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>43</v>
@@ -9276,18 +9333,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>43</v>
@@ -9296,19 +9353,19 @@
         <v>43</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>73</v>
+        <v>316</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>75</v>
+        <v>318</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9358,19 +9415,19 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>43</v>
@@ -9379,7 +9436,7 @@
         <v>43</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>69</v>
+        <v>320</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>43</v>
@@ -9387,43 +9444,41 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>451</v>
+        <v>43</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>452</v>
+        <v>322</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>453</v>
+        <v>323</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>43</v>
       </c>
@@ -9471,19 +9526,19 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>454</v>
+        <v>325</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>43</v>
@@ -9500,7 +9555,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9511,7 +9566,7 @@
         <v>41</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>43</v>
@@ -9523,20 +9578,18 @@
         <v>43</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>54</v>
+        <v>444</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>43</v>
       </c>
@@ -9584,13 +9637,13 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>43</v>
@@ -9605,7 +9658,7 @@
         <v>43</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>43</v>
@@ -9613,18 +9666,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>43</v>
+        <v>450</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>43</v>
@@ -9636,16 +9689,18 @@
         <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>43</v>
       </c>
@@ -9693,13 +9748,13 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>43</v>
@@ -9711,10 +9766,10 @@
         <v>43</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>43</v>
+        <v>455</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>43</v>
@@ -9722,11 +9777,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>467</v>
+        <v>43</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9748,15 +9803,13 @@
         <v>54</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>468</v>
+        <v>66</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>469</v>
+        <v>67</v>
       </c>
       <c r="M71" s="2"/>
-      <c r="N71" t="s" s="2">
-        <v>470</v>
-      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>43</v>
       </c>
@@ -9804,7 +9857,7 @@
         <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>466</v>
+        <v>68</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9816,16 +9869,16 @@
         <v>43</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>471</v>
+        <v>43</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>472</v>
+        <v>69</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>43</v>
@@ -9833,11 +9886,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9856,15 +9909,17 @@
         <v>43</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>474</v>
+        <v>73</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>43</v>
@@ -9889,11 +9944,13 @@
         <v>43</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="X72" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y72" t="s" s="2">
-        <v>476</v>
+        <v>43</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>43</v>
@@ -9911,7 +9968,7 @@
         <v>43</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9923,59 +9980,59 @@
         <v>43</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>471</v>
+        <v>43</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>477</v>
+        <v>69</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>43</v>
+        <v>459</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H73" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H73" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="I73" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>479</v>
+        <v>72</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>482</v>
+        <v>75</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>483</v>
+        <v>160</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>43</v>
@@ -10024,7 +10081,7 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -10036,16 +10093,16 @@
         <v>43</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>471</v>
+        <v>43</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>484</v>
+        <v>153</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>43</v>
@@ -10053,7 +10110,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10079,13 +10136,17 @@
         <v>54</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>66</v>
+        <v>464</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>43</v>
       </c>
@@ -10133,7 +10194,7 @@
         <v>43</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>68</v>
+        <v>463</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -10145,7 +10206,7 @@
         <v>43</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>43</v>
@@ -10154,7 +10215,7 @@
         <v>43</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>69</v>
+        <v>468</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>43</v>
@@ -10162,18 +10223,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>43</v>
@@ -10182,20 +10243,18 @@
         <v>43</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>72</v>
+        <v>470</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>73</v>
+        <v>471</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>43</v>
@@ -10232,31 +10291,31 @@
         <v>43</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>43</v>
@@ -10265,7 +10324,7 @@
         <v>43</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>69</v>
+        <v>473</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>43</v>
@@ -10273,15 +10332,15 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>43</v>
+        <v>475</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>52</v>
@@ -10293,33 +10352,33 @@
         <v>43</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
-        <v>491</v>
+        <v>43</v>
       </c>
       <c r="R76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>492</v>
+        <v>43</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>43</v>
@@ -10331,13 +10390,13 @@
         <v>43</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>493</v>
+        <v>43</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>494</v>
+        <v>43</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>43</v>
@@ -10355,7 +10414,7 @@
         <v>43</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -10373,10 +10432,10 @@
         <v>43</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>43</v>
@@ -10384,7 +10443,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10395,7 +10454,7 @@
         <v>41</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>43</v>
@@ -10404,21 +10463,19 @@
         <v>43</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="M77" s="2"/>
-      <c r="N77" t="s" s="2">
-        <v>501</v>
-      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>43</v>
       </c>
@@ -10430,7 +10487,7 @@
         <v>43</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>43</v>
@@ -10442,13 +10499,13 @@
         <v>43</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>135</v>
+        <v>484</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>136</v>
+        <v>485</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>43</v>
@@ -10466,13 +10523,13 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>43</v>
@@ -10484,10 +10541,10 @@
         <v>43</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>43</v>
+        <v>479</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>43</v>
@@ -10495,7 +10552,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10518,20 +10575,16 @@
         <v>43</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>505</v>
+        <v>54</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>506</v>
+        <v>66</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>43</v>
       </c>
@@ -10579,7 +10632,7 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>510</v>
+        <v>68</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10591,16 +10644,16 @@
         <v>43</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>511</v>
+        <v>43</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>512</v>
+        <v>69</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>43</v>
@@ -10608,18 +10661,18 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>43</v>
@@ -10628,23 +10681,21 @@
         <v>43</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>514</v>
+        <v>72</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>515</v>
+        <v>73</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>516</v>
+        <v>74</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>43</v>
       </c>
@@ -10656,7 +10707,7 @@
         <v>43</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>519</v>
+        <v>43</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>43</v>
@@ -10680,40 +10731,40 @@
         <v>43</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>520</v>
+        <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>521</v>
+        <v>43</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>522</v>
+        <v>69</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>43</v>
@@ -10721,7 +10772,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10732,7 +10783,7 @@
         <v>41</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>43</v>
@@ -10744,19 +10795,19 @@
         <v>53</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>524</v>
+        <v>107</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>525</v>
+        <v>201</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>526</v>
+        <v>202</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>527</v>
+        <v>203</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>528</v>
+        <v>204</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>43</v>
@@ -10793,25 +10844,23 @@
         <v>43</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="AB80" s="2"/>
       <c r="AC80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>529</v>
+        <v>205</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>43</v>
@@ -10823,10 +10872,10 @@
         <v>43</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>530</v>
+        <v>207</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>43</v>
@@ -10834,15 +10883,17 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="B81" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="C81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>52</v>
@@ -10857,19 +10908,19 @@
         <v>53</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>505</v>
+        <v>107</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>532</v>
+        <v>492</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>533</v>
+        <v>202</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>534</v>
+        <v>203</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>535</v>
+        <v>204</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -10894,13 +10945,13 @@
         <v>43</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>43</v>
+        <v>492</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>43</v>
+        <v>493</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>43</v>
@@ -10918,13 +10969,13 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>536</v>
+        <v>205</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>43</v>
@@ -10936,10 +10987,10 @@
         <v>43</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>537</v>
+        <v>207</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>43</v>
@@ -10947,7 +10998,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>538</v>
+        <v>494</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10955,7 +11006,7 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>52</v>
@@ -10973,14 +11024,16 @@
         <v>54</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>539</v>
+        <v>251</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="N82" t="s" s="2">
-        <v>541</v>
+        <v>254</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
@@ -10993,7 +11046,7 @@
         <v>43</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>542</v>
+        <v>43</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>43</v>
@@ -11029,7 +11082,7 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>543</v>
+        <v>255</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -11047,18 +11100,18 @@
         <v>43</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>43</v>
+        <v>256</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>544</v>
+        <v>257</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>545</v>
+        <v>495</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11066,32 +11119,34 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>546</v>
+        <v>496</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="N83" t="s" s="2">
-        <v>549</v>
+        <v>500</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>43</v>
@@ -11140,13 +11195,13 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>550</v>
+        <v>495</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>43</v>
@@ -11158,17 +11213,1133 @@
         <v>43</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>43</v>
+        <v>479</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM83">
+  <autoFilter ref="A1:AM93">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11178,7 +12349,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI92">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/diagnosticreport-imag-mhr-1.xlsx
+++ b/output/DiagnosticReport/diagnosticreport-imag-mhr-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="550">
   <si>
     <t>Path</t>
   </si>
@@ -1099,10 +1099,7 @@
     <t>A code or name that describes this diagnostic report.</t>
   </si>
   <si>
-    <t>Codes that describe Diagnostic Reports.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -7328,11 +7325,9 @@
       <c r="W49" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="X49" t="s" s="2">
+      <c r="X49" s="2"/>
+      <c r="Y49" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>43</v>
@@ -7365,25 +7360,25 @@
         <v>87</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>353</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7402,17 +7397,17 @@
         <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>43</v>
@@ -7461,7 +7456,7 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7476,25 +7471,25 @@
         <v>87</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>363</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7513,19 +7508,19 @@
         <v>53</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>43</v>
@@ -7574,7 +7569,7 @@
         <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7589,25 +7584,25 @@
         <v>87</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>374</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7626,19 +7621,19 @@
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>43</v>
@@ -7687,7 +7682,7 @@
         <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7702,25 +7697,25 @@
         <v>87</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>385</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7742,16 +7737,16 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>43</v>
@@ -7800,7 +7795,7 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7818,22 +7813,22 @@
         <v>43</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>394</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7852,19 +7847,19 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>43</v>
@@ -7913,7 +7908,7 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7928,25 +7923,25 @@
         <v>87</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>405</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7965,19 +7960,19 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="N55" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>43</v>
@@ -8026,7 +8021,7 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -8041,21 +8036,21 @@
         <v>87</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>405</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8078,19 +8073,19 @@
         <v>43</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>43</v>
@@ -8139,7 +8134,7 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -8157,10 +8152,10 @@
         <v>43</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>43</v>
@@ -8168,11 +8163,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8191,19 +8186,19 @@
         <v>43</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>43</v>
@@ -8252,7 +8247,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -8270,10 +8265,10 @@
         <v>43</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>43</v>
@@ -8281,7 +8276,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8390,7 +8385,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8501,7 +8496,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8612,7 +8607,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8723,7 +8718,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8834,7 +8829,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8945,7 +8940,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8968,16 +8963,16 @@
         <v>43</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9027,7 +9022,7 @@
         <v>43</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -9048,7 +9043,7 @@
         <v>43</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>43</v>
@@ -9056,11 +9051,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9079,17 +9074,17 @@
         <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>43</v>
@@ -9138,7 +9133,7 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -9156,10 +9151,10 @@
         <v>43</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>43</v>
@@ -9167,7 +9162,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9276,7 +9271,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9387,11 +9382,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9413,10 +9408,10 @@
         <v>72</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>75</v>
@@ -9471,7 +9466,7 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9500,7 +9495,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9526,16 +9521,16 @@
         <v>54</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>43</v>
@@ -9584,7 +9579,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9605,7 +9600,7 @@
         <v>43</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>43</v>
@@ -9613,7 +9608,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9636,13 +9631,13 @@
         <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9693,7 +9688,7 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>52</v>
@@ -9714,7 +9709,7 @@
         <v>43</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>43</v>
@@ -9722,11 +9717,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9748,14 +9743,14 @@
         <v>54</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>43</v>
@@ -9804,7 +9799,7 @@
         <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9822,10 +9817,10 @@
         <v>43</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>43</v>
@@ -9833,7 +9828,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9859,10 +9854,10 @@
         <v>190</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9893,7 +9888,7 @@
       </c>
       <c r="X72" s="2"/>
       <c r="Y72" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>43</v>
@@ -9911,7 +9906,7 @@
         <v>43</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9929,10 +9924,10 @@
         <v>43</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>43</v>
@@ -9940,7 +9935,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9963,19 +9958,19 @@
         <v>43</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>43</v>
@@ -10024,7 +10019,7 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -10042,10 +10037,10 @@
         <v>43</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>43</v>
@@ -10053,7 +10048,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10162,7 +10157,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10273,7 +10268,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10299,27 +10294,27 @@
         <v>129</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S76" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>43</v>
@@ -10334,28 +10329,28 @@
         <v>184</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="Y76" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="Y76" t="s" s="2">
+      <c r="Z76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE76" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -10373,10 +10368,10 @@
         <v>43</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>43</v>
@@ -10384,7 +10379,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10410,14 +10405,14 @@
         <v>129</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>43</v>
@@ -10466,7 +10461,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10487,7 +10482,7 @@
         <v>43</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>43</v>
@@ -10495,7 +10490,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10518,19 +10513,19 @@
         <v>43</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>43</v>
@@ -10579,7 +10574,7 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10597,10 +10592,10 @@
         <v>43</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>43</v>
@@ -10608,7 +10603,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10631,19 +10626,19 @@
         <v>53</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>43</v>
@@ -10656,43 +10651,43 @@
         <v>43</v>
       </c>
       <c r="S79" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE79" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10710,10 +10705,10 @@
         <v>43</v>
       </c>
       <c r="AK79" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>43</v>
@@ -10721,7 +10716,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10744,19 +10739,19 @@
         <v>53</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>43</v>
@@ -10805,7 +10800,7 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10826,7 +10821,7 @@
         <v>43</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>43</v>
@@ -10834,7 +10829,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10857,19 +10852,19 @@
         <v>53</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -10918,7 +10913,7 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10939,7 +10934,7 @@
         <v>43</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>43</v>
@@ -10947,7 +10942,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10973,14 +10968,14 @@
         <v>54</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
@@ -10993,43 +10988,43 @@
         <v>43</v>
       </c>
       <c r="S82" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE82" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -11050,7 +11045,7 @@
         <v>43</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>43</v>
@@ -11058,7 +11053,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11081,17 +11076,17 @@
         <v>53</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>43</v>
@@ -11140,7 +11135,7 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -11161,7 +11156,7 @@
         <v>43</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>43</v>

--- a/output/DiagnosticReport/diagnosticreport-imag-mhr-1.xlsx
+++ b/output/DiagnosticReport/diagnosticreport-imag-mhr-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$63</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="434">
   <si>
     <t>Path</t>
   </si>
@@ -528,474 +528,116 @@
     <t>DiagnosticReport.identifier</t>
   </si>
   <si>
-    <t>ReportID
-Filler IDPlacer ID</t>
+    <t xml:space="preserve">Identifier {Identifier|http://hl7.org.au/fhir/StructureDefinition/au-localorderidentifier|http://hl7.org.au/fhir/StructureDefinition/au-localreportidentifier|http://hl7.org.au/fhir/StructureDefinition/au-accessionnumber}
+</t>
+  </si>
+  <si>
+    <t>An identifier intended for computation</t>
+  </si>
+  <si>
+    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
+  </si>
+  <si>
+    <t>Usually assigned by the Information System of the diagnostic service provider (filler id).</t>
+  </si>
+  <si>
+    <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/servicerequest-imag-report-1)
+</t>
+  </si>
+  <si>
+    <t>Diagnostic imaging order</t>
+  </si>
+  <si>
+    <t>Details concerning a service requested.</t>
+  </si>
+  <si>
+    <t>Note: Usually there is one test request for each result, however in some circumstances multiple test requests may be represented using a single test result resource. Note that there are also cases where one request leads to multiple reports.</t>
+  </si>
+  <si>
+    <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC? OBR-2/3?</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn.identifier</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
 </t>
-  </si>
-  <si>
-    <t>Business identifier for report</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this report by the performer or other systems.</t>
-  </si>
-  <si>
-    <t>Usually assigned by the Information System of the diagnostic service provider (filler id).</t>
-  </si>
-  <si>
-    <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:type}
-</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBR-51/ for globally unique filler ID  - OBR-3 , For non-globally unique filler-id the flller/placer number must be combined with the universal service Id -  OBR-2(if present)+OBR-3+OBR-4</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>fillerIdentifier</t>
-  </si>
-  <si>
-    <t>Filler report identifier</t>
-  </si>
-  <si>
-    <t>A Report Identifier is a unique identifier for each report. It must uniquely identify the report from all other reports in a particular source system (e.g. diagnostic Imaging system, clinical laboratory system). This uniqueness must persist over time. This Report Identifier is the same concept as the Filler Order Number in the HL7 V2 specifications. In some laboratory systems, the Report Identifier may be a concatenation of a Lab Number and Report panel code (e.g. 19P123456-FBC), where the panel code makes the identifier unique from other reports under the same Lab Number. In diagnostic imaging and some pathology systems, the report identifier may be called an accession number as long as there is only a single accession number per report.</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>http://hl7.org.au/fhir/ValueSet/au-hl7v2-0203</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type.coding.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type.coding.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/v2-0203</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>FILL</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.system</t>
-  </si>
-  <si>
-    <t>Filler identifier system namespace</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.value</t>
-  </si>
-  <si>
-    <t>Filler identifier</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/servicerequest-imag-report-1)
-</t>
-  </si>
-  <si>
-    <t>Diagnostic imaging order</t>
-  </si>
-  <si>
-    <t>Details concerning a service requested.</t>
-  </si>
-  <si>
-    <t>Note: Usually there is one test request for each result, however in some circumstances multiple test requests may be represented using a single test result resource. Note that there are also cases where one request leads to multiple reports.</t>
-  </si>
-  <si>
-    <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC? OBR-2/3?</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.basedOn.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.basedOn.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.basedOn.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.basedOn.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.basedOn.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -1043,6 +685,9 @@
     <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/diagnosticreportstatus-report-available-1</t>
   </si>
   <si>
@@ -1063,6 +708,10 @@
   <si>
     <t>Department
 Sub-departmentServiceDiscipline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
   </si>
   <si>
     <t>Service category</t>
@@ -1877,7 +1526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM83"/>
+  <dimension ref="A1:AM63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1886,8 +1535,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.28125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.32421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.65234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="60.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1922,8 +1571,8 @@
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="166.02734375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="118.1328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="93.09375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="137.69921875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3931,13 +3580,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>162</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3953,22 +3602,22 @@
         <v>43</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>43</v>
@@ -4005,14 +3654,16 @@
         <v>43</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AB19" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>162</v>
@@ -4024,64 +3675,62 @@
         <v>42</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="N20" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>43</v>
@@ -4130,7 +3779,7 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -4145,21 +3794,21 @@
         <v>87</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>173</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4268,7 +3917,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4379,7 +4028,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4387,7 +4036,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>52</v>
@@ -4396,26 +4045,24 @@
         <v>43</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>43</v>
       </c>
@@ -4439,13 +4086,13 @@
         <v>43</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>43</v>
@@ -4472,7 +4119,7 @@
         <v>52</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>87</v>
@@ -4481,10 +4128,10 @@
         <v>43</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>43</v>
@@ -4500,7 +4147,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>52</v>
@@ -4515,20 +4162,18 @@
         <v>53</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>194</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>43</v>
       </c>
@@ -4552,29 +4197,31 @@
         <v>43</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X24" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="Y24" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4592,10 +4239,10 @@
         <v>43</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>43</v>
@@ -4603,7 +4250,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4623,18 +4270,20 @@
         <v>43</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>43</v>
@@ -4683,7 +4332,7 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4695,7 +4344,7 @@
         <v>43</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>43</v>
@@ -4704,7 +4353,7 @@
         <v>43</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>43</v>
@@ -4712,18 +4361,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>43</v>
@@ -4732,19 +4381,19 @@
         <v>43</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4782,31 +4431,31 @@
         <v>43</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>43</v>
@@ -4815,15 +4464,15 @@
         <v>43</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4837,28 +4486,26 @@
         <v>52</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>43</v>
@@ -4883,13 +4530,11 @@
         <v>43</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>43</v>
@@ -4907,13 +4552,13 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>43</v>
@@ -4922,52 +4567,54 @@
         <v>87</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>43</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>43</v>
@@ -4992,13 +4639,11 @@
         <v>43</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>43</v>
+        <v>224</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>43</v>
@@ -5016,69 +4661,67 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>69</v>
+        <v>226</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>43</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>71</v>
+        <v>229</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>72</v>
+        <v>220</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>43</v>
@@ -5103,64 +4746,62 @@
         <v>43</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>69</v>
+        <v>235</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>43</v>
+        <v>236</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5170,7 +4811,7 @@
         <v>52</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>43</v>
@@ -5179,26 +4820,24 @@
         <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>95</v>
+        <v>239</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>215</v>
+        <v>43</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>43</v>
@@ -5240,7 +4879,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -5255,25 +4894,25 @@
         <v>87</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>43</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5292,18 +4931,20 @@
         <v>53</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>54</v>
+        <v>249</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>43</v>
       </c>
@@ -5351,7 +4992,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -5366,25 +5007,25 @@
         <v>87</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>43</v>
+        <v>254</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>43</v>
+        <v>257</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5394,7 +5035,7 @@
         <v>52</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>43</v>
@@ -5403,24 +5044,26 @@
         <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="N32" t="s" s="2">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>230</v>
+        <v>43</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>43</v>
@@ -5462,7 +5105,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5477,35 +5120,35 @@
         <v>87</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>43</v>
+        <v>265</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>43</v>
+        <v>268</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>43</v>
+        <v>270</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>43</v>
@@ -5514,17 +5157,19 @@
         <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="N33" t="s" s="2">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>43</v>
@@ -5573,7 +5218,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5591,32 +5236,32 @@
         <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>43</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>43</v>
+        <v>279</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>43</v>
@@ -5625,19 +5270,19 @@
         <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>43</v>
@@ -5686,13 +5331,13 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>43</v>
@@ -5701,32 +5346,32 @@
         <v>87</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>43</v>
+        <v>285</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>43</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>43</v>
+        <v>290</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>43</v>
@@ -5738,19 +5383,19 @@
         <v>53</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>54</v>
+        <v>291</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>43</v>
@@ -5799,13 +5444,13 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>43</v>
@@ -5814,21 +5459,21 @@
         <v>87</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>43</v>
+        <v>285</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>43</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5836,10 +5481,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>43</v>
@@ -5848,22 +5493,22 @@
         <v>43</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>95</v>
+        <v>297</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>43</v>
@@ -5876,7 +5521,7 @@
         <v>43</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>263</v>
+        <v>43</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>43</v>
@@ -5912,13 +5557,13 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>43</v>
@@ -5930,52 +5575,54 @@
         <v>43</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>52</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>54</v>
+        <v>305</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>43</v>
       </c>
@@ -5987,7 +5634,7 @@
         <v>43</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>271</v>
+        <v>43</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>43</v>
@@ -6023,13 +5670,13 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>43</v>
@@ -6041,10 +5688,10 @@
         <v>43</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>43</v>
@@ -6052,7 +5699,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6072,16 +5719,16 @@
         <v>43</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>276</v>
+        <v>54</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>277</v>
+        <v>66</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>278</v>
+        <v>67</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6132,7 +5779,7 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>279</v>
+        <v>68</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -6144,16 +5791,16 @@
         <v>43</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>280</v>
+        <v>43</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>281</v>
+        <v>69</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>43</v>
@@ -6161,18 +5808,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>43</v>
@@ -6181,19 +5828,19 @@
         <v>43</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>283</v>
+        <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>284</v>
+        <v>73</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>285</v>
+        <v>74</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>286</v>
+        <v>75</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6231,52 +5878,52 @@
         <v>43</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>288</v>
+        <v>43</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>289</v>
+        <v>69</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>291</v>
+        <v>43</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6286,29 +5933,27 @@
         <v>52</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H40" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>292</v>
+        <v>54</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>293</v>
+        <v>184</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>294</v>
+        <v>185</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>43</v>
       </c>
@@ -6356,28 +6001,28 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>297</v>
+        <v>43</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>298</v>
+        <v>43</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>299</v>
+        <v>153</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>43</v>
@@ -6385,7 +6030,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6405,18 +6050,20 @@
         <v>43</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>43</v>
@@ -6441,13 +6088,13 @@
         <v>43</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>43</v>
@@ -6465,7 +6112,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6477,7 +6124,7 @@
         <v>43</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>43</v>
@@ -6486,7 +6133,7 @@
         <v>43</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>43</v>
@@ -6494,18 +6141,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>43</v>
@@ -6514,19 +6161,19 @@
         <v>43</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6564,31 +6211,31 @@
         <v>43</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>43</v>
@@ -6597,7 +6244,7 @@
         <v>43</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>43</v>
@@ -6605,7 +6252,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6613,7 +6260,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>52</v>
@@ -6631,13 +6278,13 @@
         <v>54</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6687,7 +6334,7 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6696,7 +6343,7 @@
         <v>52</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>307</v>
+        <v>43</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>87</v>
@@ -6716,7 +6363,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6727,7 +6374,7 @@
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>43</v>
@@ -6736,19 +6383,19 @@
         <v>43</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>95</v>
+        <v>319</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6774,13 +6421,13 @@
         <v>43</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>312</v>
+        <v>43</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>313</v>
+        <v>43</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>43</v>
@@ -6798,13 +6445,13 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>43</v>
@@ -6819,7 +6466,7 @@
         <v>43</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>153</v>
+        <v>323</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>43</v>
@@ -6827,18 +6474,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>43</v>
@@ -6850,18 +6497,18 @@
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>164</v>
+        <v>326</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>43</v>
       </c>
@@ -6909,13 +6556,13 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>43</v>
@@ -6927,10 +6574,10 @@
         <v>43</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>43</v>
+        <v>330</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>43</v>
@@ -6938,7 +6585,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6958,20 +6605,18 @@
         <v>43</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>322</v>
+        <v>66</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>43</v>
@@ -7020,7 +6665,7 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>325</v>
+        <v>68</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -7032,7 +6677,7 @@
         <v>43</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>43</v>
@@ -7041,49 +6686,49 @@
         <v>43</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>327</v>
+        <v>73</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>43</v>
       </c>
@@ -7107,11 +6752,13 @@
         <v>43</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X47" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y47" t="s" s="2">
-        <v>330</v>
+        <v>43</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>43</v>
@@ -7129,70 +6776,72 @@
         <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>331</v>
+        <v>43</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>332</v>
+        <v>43</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H48" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>43</v>
       </c>
@@ -7216,11 +6865,13 @@
         <v>43</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="X48" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y48" t="s" s="2">
-        <v>340</v>
+        <v>43</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>43</v>
@@ -7238,7 +6889,7 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -7250,56 +6901,60 @@
         <v>43</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>341</v>
+        <v>43</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>342</v>
+        <v>153</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>343</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>345</v>
+        <v>43</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>190</v>
+        <v>54</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>43</v>
       </c>
@@ -7323,11 +6978,13 @@
         <v>43</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>348</v>
+        <v>43</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>43</v>
@@ -7345,10 +7002,10 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>52</v>
@@ -7360,25 +7017,25 @@
         <v>87</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>349</v>
+        <v>43</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>350</v>
+        <v>43</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>352</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>354</v>
+        <v>43</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7388,7 +7045,7 @@
         <v>52</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>43</v>
@@ -7397,18 +7054,16 @@
         <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>358</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>43</v>
       </c>
@@ -7456,10 +7111,10 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>52</v>
@@ -7471,25 +7126,25 @@
         <v>87</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>359</v>
+        <v>43</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>360</v>
+        <v>43</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>362</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7505,22 +7160,20 @@
         <v>43</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>365</v>
+        <v>54</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>43</v>
@@ -7569,7 +7222,7 @@
         <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7584,57 +7237,53 @@
         <v>87</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>370</v>
+        <v>43</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>373</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>375</v>
+        <v>43</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>376</v>
+        <v>220</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>43</v>
       </c>
@@ -7658,13 +7307,11 @@
         <v>43</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>43</v>
+        <v>359</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>43</v>
@@ -7682,13 +7329,13 @@
         <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>43</v>
@@ -7697,25 +7344,25 @@
         <v>87</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>381</v>
+        <v>43</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>384</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>386</v>
+        <v>43</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7731,22 +7378,22 @@
         <v>43</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>362</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>43</v>
@@ -7795,13 +7442,13 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>43</v>
@@ -7813,54 +7460,50 @@
         <v>43</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>393</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>395</v>
+        <v>43</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>396</v>
+        <v>54</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>397</v>
+        <v>66</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>43</v>
       </c>
@@ -7908,40 +7551,40 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>394</v>
+        <v>68</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>401</v>
+        <v>43</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>402</v>
+        <v>43</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>403</v>
+        <v>69</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>404</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>406</v>
+        <v>71</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7957,23 +7600,21 @@
         <v>43</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>407</v>
+        <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>408</v>
+        <v>73</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>409</v>
+        <v>74</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>43</v>
       </c>
@@ -8009,19 +7650,19 @@
         <v>43</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -8033,24 +7674,24 @@
         <v>43</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>401</v>
+        <v>43</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>411</v>
+        <v>43</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>403</v>
+        <v>69</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>404</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8058,10 +7699,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>43</v>
@@ -8070,35 +7711,33 @@
         <v>43</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>413</v>
+        <v>129</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>414</v>
+        <v>371</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>417</v>
+        <v>373</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>43</v>
+        <v>374</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>43</v>
+        <v>375</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>43</v>
@@ -8110,13 +7749,13 @@
         <v>43</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>43</v>
+        <v>376</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>43</v>
+        <v>377</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>43</v>
@@ -8134,13 +7773,13 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>43</v>
@@ -8152,53 +7791,51 @@
         <v>43</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>418</v>
+        <v>379</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>420</v>
+        <v>43</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="J57" t="s" s="2">
-        <v>421</v>
+        <v>129</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>43</v>
@@ -8211,7 +7848,7 @@
         <v>43</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>43</v>
@@ -8223,13 +7860,13 @@
         <v>43</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>43</v>
@@ -8247,13 +7884,13 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>43</v>
@@ -8265,10 +7902,10 @@
         <v>43</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>426</v>
+        <v>43</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>43</v>
@@ -8276,7 +7913,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>428</v>
+        <v>387</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8299,16 +7936,20 @@
         <v>43</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>54</v>
+        <v>388</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>66</v>
+        <v>389</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>43</v>
       </c>
@@ -8356,7 +7997,7 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>68</v>
+        <v>393</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8368,16 +8009,16 @@
         <v>43</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>43</v>
+        <v>394</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>69</v>
+        <v>395</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>43</v>
@@ -8385,18 +8026,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>43</v>
@@ -8405,21 +8046,23 @@
         <v>43</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>72</v>
+        <v>397</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>73</v>
+        <v>398</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>74</v>
+        <v>399</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>43</v>
       </c>
@@ -8431,7 +8074,7 @@
         <v>43</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>43</v>
+        <v>402</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>43</v>
@@ -8455,40 +8098,40 @@
         <v>43</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>43</v>
+        <v>404</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>69</v>
+        <v>405</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>43</v>
@@ -8496,7 +8139,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8504,7 +8147,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>52</v>
@@ -8519,18 +8162,20 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>54</v>
+        <v>407</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>303</v>
+        <v>408</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>304</v>
+        <v>409</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>43</v>
       </c>
@@ -8578,7 +8223,7 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>306</v>
+        <v>412</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8587,7 +8232,7 @@
         <v>52</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>307</v>
+        <v>43</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>87</v>
@@ -8599,7 +8244,7 @@
         <v>43</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>153</v>
+        <v>413</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>43</v>
@@ -8607,7 +8252,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8615,7 +8260,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>52</v>
@@ -8630,18 +8275,20 @@
         <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>95</v>
+        <v>388</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>309</v>
+        <v>415</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>310</v>
+        <v>416</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>43</v>
       </c>
@@ -8665,13 +8312,13 @@
         <v>43</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>312</v>
+        <v>43</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>313</v>
+        <v>43</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>43</v>
@@ -8689,7 +8336,7 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>314</v>
+        <v>419</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8710,7 +8357,7 @@
         <v>43</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>153</v>
+        <v>420</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>43</v>
@@ -8718,7 +8365,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8726,7 +8373,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>52</v>
@@ -8741,18 +8388,18 @@
         <v>53</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>164</v>
+        <v>54</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>316</v>
+        <v>422</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>43</v>
       </c>
@@ -8764,7 +8411,7 @@
         <v>43</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>43</v>
+        <v>425</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>43</v>
@@ -8800,7 +8447,7 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>319</v>
+        <v>426</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8821,7 +8468,7 @@
         <v>43</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>320</v>
+        <v>427</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>43</v>
@@ -8829,7 +8476,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8852,18 +8499,18 @@
         <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>54</v>
+        <v>429</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>322</v>
+        <v>430</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>43</v>
       </c>
@@ -8911,7 +8558,7 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>325</v>
+        <v>433</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8932,2238 +8579,14 @@
         <v>43</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>153</v>
+        <v>413</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="X72" s="2"/>
-      <c r="Y72" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AM83" t="s" s="2">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM83">
+  <autoFilter ref="A1:AM63">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11173,7 +8596,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI62">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
